--- a/all_annotated/B_Q4_2012_3.xlsx
+++ b/all_annotated/B_Q4_2012_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmand\Desktop\CS\VIP\SubjECTive-QA\Tarun-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D40BFC-1B86-4755-8678-EE81DC772034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80378CDE-A1FF-EB4B-B3B3-3ECE3DAB5224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35040" yWindow="540" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>Asker</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Matt J. Summerville</t>
-  </si>
-  <si>
-    <t>Oh, that's a good question.</t>
   </si>
   <si>
     <t>Yes. Again, for purposes of disclosure, Matt, we don't get to the SBU level.</t>
@@ -352,6 +349,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -696,15 +694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -768,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -800,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -832,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -864,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -896,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -928,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -960,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -992,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1216,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1312,15 +1310,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1344,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1352,19 +1350,19 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1373,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1384,10 +1382,10 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1402,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -1428,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1448,10 +1446,10 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1472,15 +1470,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
@@ -1495,33 +1493,33 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1536,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1544,10 +1542,10 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1559,123 +1557,123 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1696,41 +1694,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>70</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1739,7 +1737,7 @@
         <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1760,21 +1758,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1786,24 +1784,24 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1824,56 +1822,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
       </c>
       <c r="D37" t="s">
         <v>80</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1885,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1920,21 +1918,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1943,94 +1941,94 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s">
         <v>87</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>89</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2045,50 +2043,50 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
       <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
         <v>90</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>91</v>
       </c>
       <c r="D44" t="s">
         <v>92</v>
@@ -2100,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2109,30 +2107,30 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2144,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2152,31 +2150,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2184,16 +2182,16 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2202,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2216,16 +2214,16 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2237,38 +2235,6 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
         <v>0</v>
       </c>
     </row>
